--- a/Code/Results/Cases/Case_9_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.00364614603117</v>
+        <v>13.86347054197851</v>
       </c>
       <c r="C2">
-        <v>8.403061760304363</v>
+        <v>7.954261622769611</v>
       </c>
       <c r="D2">
-        <v>6.079358138653016</v>
+        <v>6.152238156368357</v>
       </c>
       <c r="E2">
-        <v>8.359588096295951</v>
+        <v>8.262046238401215</v>
       </c>
       <c r="F2">
-        <v>22.71029399189062</v>
+        <v>21.96643750502108</v>
       </c>
       <c r="G2">
-        <v>25.65563843585792</v>
+        <v>24.16007346060383</v>
       </c>
       <c r="H2">
-        <v>3.134127560779977</v>
+        <v>2.976621242293762</v>
       </c>
       <c r="I2">
-        <v>3.940965365527895</v>
+        <v>3.73027238186646</v>
       </c>
       <c r="J2">
-        <v>10.17549529696027</v>
+        <v>10.08170194077415</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.093249337166511</v>
+        <v>12.9083949113565</v>
       </c>
       <c r="M2">
-        <v>11.39554145849092</v>
+        <v>11.32993872731674</v>
       </c>
       <c r="N2">
-        <v>6.522548546885611</v>
+        <v>6.007763315912377</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.52204834090705</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.768737246190039</v>
       </c>
       <c r="Q2">
-        <v>16.79509909434156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.21276928441582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.11909889423736</v>
+        <v>12.97149963677741</v>
       </c>
       <c r="C3">
-        <v>8.311819420760175</v>
+        <v>7.792302206402336</v>
       </c>
       <c r="D3">
-        <v>5.85385096978942</v>
+        <v>5.923888462023054</v>
       </c>
       <c r="E3">
-        <v>8.204056474572242</v>
+        <v>8.120239077644721</v>
       </c>
       <c r="F3">
-        <v>22.59361535891413</v>
+        <v>21.89761552831118</v>
       </c>
       <c r="G3">
-        <v>25.5790617508293</v>
+        <v>24.21146499318533</v>
       </c>
       <c r="H3">
-        <v>3.318336537410099</v>
+        <v>3.148664817009931</v>
       </c>
       <c r="I3">
-        <v>4.085845104317378</v>
+        <v>3.859340728029515</v>
       </c>
       <c r="J3">
-        <v>10.22920741665842</v>
+        <v>10.11218947415658</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.061035594819007</v>
+        <v>13.06300883437548</v>
       </c>
       <c r="M3">
-        <v>10.78526317665379</v>
+        <v>11.41506528775173</v>
       </c>
       <c r="N3">
-        <v>6.320642417767637</v>
+        <v>5.980298562645353</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.89720309018371</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.560596485429427</v>
       </c>
       <c r="Q3">
-        <v>16.8451816567872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.29191411801438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.54366909303289</v>
+        <v>12.38926387084498</v>
       </c>
       <c r="C4">
-        <v>8.255414049210032</v>
+        <v>7.692715549105483</v>
       </c>
       <c r="D4">
-        <v>5.712008184118118</v>
+        <v>5.780402626501478</v>
       </c>
       <c r="E4">
-        <v>8.10645999418646</v>
+        <v>8.031205306303466</v>
       </c>
       <c r="F4">
-        <v>22.52846906976591</v>
+        <v>21.8607936522401</v>
       </c>
       <c r="G4">
-        <v>25.54186201879742</v>
+        <v>24.25389083456479</v>
       </c>
       <c r="H4">
-        <v>3.435757590969203</v>
+        <v>3.258366118682579</v>
       </c>
       <c r="I4">
-        <v>4.178780127976118</v>
+        <v>3.942400978871313</v>
       </c>
       <c r="J4">
-        <v>10.26461510977399</v>
+        <v>10.13186943414566</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.04041446905337</v>
+        <v>13.15994642495003</v>
       </c>
       <c r="M4">
-        <v>10.39221702441885</v>
+        <v>11.48210718594974</v>
       </c>
       <c r="N4">
-        <v>6.194266343844006</v>
+        <v>5.962617743703422</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.49488373276843</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.430717254807797</v>
       </c>
       <c r="Q4">
-        <v>16.8810500225585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.34467720564897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.29861989974242</v>
+        <v>12.14630627288781</v>
       </c>
       <c r="C5">
-        <v>8.234883588935524</v>
+        <v>7.655621633492685</v>
       </c>
       <c r="D5">
-        <v>5.654172879201196</v>
+        <v>5.721907585284241</v>
       </c>
       <c r="E5">
-        <v>8.064838309980635</v>
+        <v>7.993156514711415</v>
       </c>
       <c r="F5">
-        <v>22.49624572369606</v>
+        <v>21.84008478955378</v>
       </c>
       <c r="G5">
-        <v>25.51725529287341</v>
+        <v>24.26243814661104</v>
       </c>
       <c r="H5">
-        <v>3.485002259562288</v>
+        <v>3.304390074180123</v>
       </c>
       <c r="I5">
-        <v>4.220049797740536</v>
+        <v>3.98001048245473</v>
       </c>
       <c r="J5">
-        <v>10.27765766583704</v>
+        <v>10.13816191454966</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.031139913279627</v>
+        <v>13.19502915940106</v>
       </c>
       <c r="M5">
-        <v>10.22939702348181</v>
+        <v>11.51059729244329</v>
       </c>
       <c r="N5">
-        <v>6.144054735555937</v>
+        <v>5.954589690561852</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.32817117887513</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.379088538000246</v>
       </c>
       <c r="Q5">
-        <v>16.89201419256587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.36249683165019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.254420577188</v>
+        <v>12.10249942783713</v>
       </c>
       <c r="C6">
-        <v>8.234634286231232</v>
+        <v>7.653793052255883</v>
       </c>
       <c r="D6">
-        <v>5.645431577341989</v>
+        <v>5.713033137673252</v>
       </c>
       <c r="E6">
-        <v>8.056244773733455</v>
+        <v>7.985224085350538</v>
       </c>
       <c r="F6">
-        <v>22.48207265086028</v>
+        <v>21.82811351675801</v>
       </c>
       <c r="G6">
-        <v>25.49882092690637</v>
+        <v>24.25012681066091</v>
       </c>
       <c r="H6">
-        <v>3.493607976091361</v>
+        <v>3.312444063483662</v>
       </c>
       <c r="I6">
-        <v>4.230015673439987</v>
+        <v>3.989901731967993</v>
       </c>
       <c r="J6">
-        <v>10.27743062820327</v>
+        <v>10.13681796854967</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.028781708481274</v>
+        <v>13.19487771417501</v>
       </c>
       <c r="M6">
-        <v>10.20438232415457</v>
+        <v>11.51249384305379</v>
       </c>
       <c r="N6">
-        <v>6.137935494187259</v>
+        <v>5.952491177564926</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.30245380709944</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.372641909075588</v>
       </c>
       <c r="Q6">
-        <v>16.88791153840634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.35977228193633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53232647530149</v>
+        <v>12.37871043055012</v>
       </c>
       <c r="C7">
-        <v>8.263817997972124</v>
+        <v>7.702383987491649</v>
       </c>
       <c r="D7">
-        <v>5.713674095635934</v>
+        <v>5.785438739239673</v>
       </c>
       <c r="E7">
-        <v>8.101427049386412</v>
+        <v>8.02690177408248</v>
       </c>
       <c r="F7">
-        <v>22.50375677489843</v>
+        <v>21.82491510382763</v>
       </c>
       <c r="G7">
-        <v>25.50204502632737</v>
+        <v>24.27316225382994</v>
       </c>
       <c r="H7">
-        <v>3.437386461391336</v>
+        <v>3.260413565752768</v>
       </c>
       <c r="I7">
-        <v>4.187398428594666</v>
+        <v>3.952839910959043</v>
       </c>
       <c r="J7">
-        <v>10.25817318695849</v>
+        <v>10.09670238076398</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.038111583762642</v>
+        <v>13.13827998939919</v>
       </c>
       <c r="M7">
-        <v>10.3961979090768</v>
+        <v>11.47036770919219</v>
       </c>
       <c r="N7">
-        <v>6.199668645446</v>
+        <v>5.960014131626774</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.49785307697178</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.436085706033269</v>
       </c>
       <c r="Q7">
-        <v>16.8648458629119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.3206639098179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.69547178782213</v>
+        <v>13.55439292079227</v>
       </c>
       <c r="C8">
-        <v>8.383407099275567</v>
+        <v>7.909096700412165</v>
       </c>
       <c r="D8">
-        <v>6.005431658749258</v>
+        <v>6.088213877423917</v>
       </c>
       <c r="E8">
-        <v>8.300680694965081</v>
+        <v>8.209803329579843</v>
       </c>
       <c r="F8">
-        <v>22.63703755129368</v>
+        <v>21.87126164085743</v>
       </c>
       <c r="G8">
-        <v>25.57549294184997</v>
+        <v>24.31670756507946</v>
       </c>
       <c r="H8">
-        <v>3.197952589303788</v>
+        <v>3.037777728392522</v>
       </c>
       <c r="I8">
-        <v>4.000287467028105</v>
+        <v>3.787387254974516</v>
       </c>
       <c r="J8">
-        <v>10.18483094454314</v>
+        <v>9.990278835179545</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.079525732650174</v>
+        <v>12.92357249768561</v>
       </c>
       <c r="M8">
-        <v>11.19667662598139</v>
+        <v>11.33029332029569</v>
       </c>
       <c r="N8">
-        <v>6.461203302100955</v>
+        <v>5.994431877295442</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.31557888649572</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.705658336904132</v>
       </c>
       <c r="Q8">
-        <v>16.78982629588907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.19043630745917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73196403490511</v>
+        <v>15.59886616847156</v>
       </c>
       <c r="C9">
-        <v>8.599328940973296</v>
+        <v>8.296904997772451</v>
       </c>
       <c r="D9">
-        <v>6.543710962177252</v>
+        <v>6.636032940576365</v>
       </c>
       <c r="E9">
-        <v>8.681205498506381</v>
+        <v>8.557339651471587</v>
       </c>
       <c r="F9">
-        <v>22.99315724622475</v>
+        <v>22.0918722826596</v>
       </c>
       <c r="G9">
-        <v>25.86981138659442</v>
+        <v>24.35023581038046</v>
       </c>
       <c r="H9">
-        <v>2.760512885466343</v>
+        <v>2.629623611572407</v>
       </c>
       <c r="I9">
-        <v>3.65138913695966</v>
+        <v>3.475761055390312</v>
       </c>
       <c r="J9">
-        <v>10.07244595587557</v>
+        <v>9.902063870221808</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.157805677817412</v>
+        <v>12.56583471924034</v>
       </c>
       <c r="M9">
-        <v>12.6078571369911</v>
+        <v>11.20541190874685</v>
       </c>
       <c r="N9">
-        <v>6.942490848165292</v>
+        <v>6.060605720959526</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.7607488273096</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.204394736308968</v>
       </c>
       <c r="Q9">
-        <v>16.71377745255811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.02826693677174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.05267592768162</v>
+        <v>16.9215118310458</v>
       </c>
       <c r="C10">
-        <v>8.781964139212535</v>
+        <v>8.601368510812126</v>
       </c>
       <c r="D10">
-        <v>6.880230547111389</v>
+        <v>6.995597855874548</v>
       </c>
       <c r="E10">
-        <v>8.856948855704957</v>
+        <v>8.7159589658645</v>
       </c>
       <c r="F10">
-        <v>23.149075296782</v>
+        <v>22.09103338507439</v>
       </c>
       <c r="G10">
-        <v>25.94882928258174</v>
+        <v>24.60461733983066</v>
       </c>
       <c r="H10">
-        <v>2.485230156246869</v>
+        <v>2.376892882838143</v>
       </c>
       <c r="I10">
-        <v>3.422906844480431</v>
+        <v>3.2764127929992</v>
       </c>
       <c r="J10">
-        <v>9.970749171942121</v>
+        <v>9.662298196413877</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.185726904485031</v>
+        <v>12.24242467674618</v>
       </c>
       <c r="M10">
-        <v>13.56464956691917</v>
+        <v>11.11128029856133</v>
       </c>
       <c r="N10">
-        <v>7.212709245616566</v>
+        <v>6.080632181277509</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.73442284081831</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.486892823901024</v>
       </c>
       <c r="Q10">
-        <v>16.60628382859209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.81454502127459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.48352564135152</v>
+        <v>17.37112183772316</v>
       </c>
       <c r="C11">
-        <v>9.091376006007915</v>
+        <v>8.973572867759627</v>
       </c>
       <c r="D11">
-        <v>6.699776925684874</v>
+        <v>6.844871823278758</v>
       </c>
       <c r="E11">
-        <v>8.202209372851444</v>
+        <v>8.082806055096221</v>
       </c>
       <c r="F11">
-        <v>22.10075095281889</v>
+        <v>20.97889226993853</v>
       </c>
       <c r="G11">
-        <v>24.46645761695701</v>
+        <v>23.92810137181489</v>
       </c>
       <c r="H11">
-        <v>3.273216021259835</v>
+        <v>3.198823542692636</v>
       </c>
       <c r="I11">
-        <v>3.37494868178506</v>
+        <v>3.242981651804623</v>
       </c>
       <c r="J11">
-        <v>9.671842674368811</v>
+        <v>9.154213753877219</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.027239045011692</v>
+        <v>11.73845764352863</v>
       </c>
       <c r="M11">
-        <v>14.08107856000158</v>
+        <v>10.64553118836672</v>
       </c>
       <c r="N11">
-        <v>6.741905625884817</v>
+        <v>5.941397372278823</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.23269802386652</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.001211619177111</v>
       </c>
       <c r="Q11">
-        <v>15.92553210617698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.09726151232108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58472849927681</v>
+        <v>17.4905114329615</v>
       </c>
       <c r="C12">
-        <v>9.335464794136989</v>
+        <v>9.231423572792362</v>
       </c>
       <c r="D12">
-        <v>6.470055445253046</v>
+        <v>6.624579416696068</v>
       </c>
       <c r="E12">
-        <v>7.687007629303977</v>
+        <v>7.585770319172233</v>
       </c>
       <c r="F12">
-        <v>21.21792006862544</v>
+        <v>20.12078613975399</v>
       </c>
       <c r="G12">
-        <v>23.25813758211738</v>
+        <v>23.12563470124224</v>
       </c>
       <c r="H12">
-        <v>4.508486117663709</v>
+        <v>4.455518447672175</v>
       </c>
       <c r="I12">
-        <v>3.364027364875764</v>
+        <v>3.234720143792079</v>
       </c>
       <c r="J12">
-        <v>9.453384507770984</v>
+        <v>8.914709038385285</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.952512997198706</v>
+        <v>11.44580995356455</v>
       </c>
       <c r="M12">
-        <v>14.31674883789976</v>
+        <v>10.31266644765139</v>
       </c>
       <c r="N12">
-        <v>6.289552559508881</v>
+        <v>5.885047042628049</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.45129080751219</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.532844002637393</v>
       </c>
       <c r="Q12">
-        <v>15.40282733548537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.60014278790318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.43303367635346</v>
+        <v>17.35708338853157</v>
       </c>
       <c r="C13">
-        <v>9.553777737024657</v>
+        <v>9.438720420942399</v>
       </c>
       <c r="D13">
-        <v>6.186839790093949</v>
+        <v>6.328692985455843</v>
       </c>
       <c r="E13">
-        <v>7.253447476148277</v>
+        <v>7.168942503729316</v>
       </c>
       <c r="F13">
-        <v>20.37258281697945</v>
+        <v>19.39335261519726</v>
       </c>
       <c r="G13">
-        <v>22.12984676661909</v>
+        <v>21.97721164664173</v>
       </c>
       <c r="H13">
-        <v>5.854194816560912</v>
+        <v>5.81114925638375</v>
       </c>
       <c r="I13">
-        <v>3.394232456383094</v>
+        <v>3.260457497191477</v>
       </c>
       <c r="J13">
-        <v>9.274466756222571</v>
+        <v>8.841897173843146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.934642300530217</v>
+        <v>11.26584208876472</v>
       </c>
       <c r="M13">
-        <v>14.3647311476938</v>
+        <v>10.06156409074997</v>
       </c>
       <c r="N13">
-        <v>5.829353061983304</v>
+        <v>5.88436518552204</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.4827423966476</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.054530607726877</v>
       </c>
       <c r="Q13">
-        <v>14.9476242456872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.23396021637596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.20986164858734</v>
+        <v>17.14556524523284</v>
       </c>
       <c r="C14">
-        <v>9.701872194365176</v>
+        <v>9.567950610767765</v>
       </c>
       <c r="D14">
-        <v>5.962534876333075</v>
+        <v>6.08605568137178</v>
       </c>
       <c r="E14">
-        <v>7.00723551580925</v>
+        <v>6.934357716981181</v>
       </c>
       <c r="F14">
-        <v>19.79822104273299</v>
+        <v>18.93764026135902</v>
       </c>
       <c r="G14">
-        <v>21.37794824789784</v>
+        <v>21.04094455624597</v>
       </c>
       <c r="H14">
-        <v>6.828222594080535</v>
+        <v>6.788791171322112</v>
       </c>
       <c r="I14">
-        <v>3.436514714022782</v>
+        <v>3.2969552121536</v>
       </c>
       <c r="J14">
-        <v>9.16756893586478</v>
+        <v>8.846510599435298</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.955629477716782</v>
+        <v>11.18221836662779</v>
       </c>
       <c r="M14">
-        <v>14.31562942558611</v>
+        <v>9.926210683275817</v>
       </c>
       <c r="N14">
-        <v>5.508686790127157</v>
+        <v>5.915361500265576</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.42196520086715</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.720737444846563</v>
       </c>
       <c r="Q14">
-        <v>14.66104356295822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.03244687852117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.09844293389433</v>
+        <v>17.03661770637104</v>
       </c>
       <c r="C15">
-        <v>9.734107285757531</v>
+        <v>9.592620587496896</v>
       </c>
       <c r="D15">
-        <v>5.897331431555294</v>
+        <v>6.012408853934317</v>
       </c>
       <c r="E15">
-        <v>6.955098651639601</v>
+        <v>6.88538731000798</v>
       </c>
       <c r="F15">
-        <v>19.6600852322411</v>
+        <v>18.84375189411073</v>
       </c>
       <c r="G15">
-        <v>21.20162562045407</v>
+        <v>20.75356891948809</v>
       </c>
       <c r="H15">
-        <v>7.057556755394648</v>
+        <v>7.018178516630587</v>
       </c>
       <c r="I15">
-        <v>3.45990154060725</v>
+        <v>3.318118785213581</v>
       </c>
       <c r="J15">
-        <v>9.147963051427141</v>
+        <v>8.870673876842096</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.964281556332969</v>
+        <v>11.17508274198826</v>
       </c>
       <c r="M15">
-        <v>14.2650567229109</v>
+        <v>9.906911557578495</v>
       </c>
       <c r="N15">
-        <v>5.429315571564832</v>
+        <v>5.926027280547465</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.36853785565374</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.637951364271918</v>
       </c>
       <c r="Q15">
-        <v>14.60094669364878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.00286583036319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.5752457064313</v>
+        <v>16.5080607161874</v>
       </c>
       <c r="C16">
-        <v>9.614886105488454</v>
+        <v>9.443274098137028</v>
       </c>
       <c r="D16">
-        <v>5.80149668960588</v>
+        <v>5.883972114725454</v>
       </c>
       <c r="E16">
-        <v>6.960294942558294</v>
+        <v>6.89374567247643</v>
       </c>
       <c r="F16">
-        <v>19.7483497765547</v>
+        <v>19.05921616006071</v>
       </c>
       <c r="G16">
-        <v>21.37375248406104</v>
+        <v>20.40267327069886</v>
       </c>
       <c r="H16">
-        <v>6.877027444383909</v>
+        <v>6.830164534474453</v>
       </c>
       <c r="I16">
-        <v>3.556635835982293</v>
+        <v>3.401325879524498</v>
       </c>
       <c r="J16">
-        <v>9.225243737836783</v>
+        <v>9.107495829843755</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.951007623089675</v>
+        <v>11.31677970626757</v>
       </c>
       <c r="M16">
-        <v>13.86989029172009</v>
+        <v>10.04945484050175</v>
       </c>
       <c r="N16">
-        <v>5.397011962112807</v>
+        <v>5.911176001417744</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.9738044970495</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.603879054610417</v>
       </c>
       <c r="Q16">
-        <v>14.73337064577093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.21698694960193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.2894126122199</v>
+        <v>16.21176110476692</v>
       </c>
       <c r="C17">
-        <v>9.441676193609345</v>
+        <v>9.254429487080056</v>
       </c>
       <c r="D17">
-        <v>5.850625921681472</v>
+        <v>5.921948955938268</v>
       </c>
       <c r="E17">
-        <v>7.084225551818841</v>
+        <v>7.01318286363664</v>
       </c>
       <c r="F17">
-        <v>20.11849582133728</v>
+        <v>19.4542435345126</v>
       </c>
       <c r="G17">
-        <v>21.89876273279209</v>
+        <v>20.68878304157394</v>
       </c>
       <c r="H17">
-        <v>6.194074879020518</v>
+        <v>6.138093970199242</v>
       </c>
       <c r="I17">
-        <v>3.609069301706739</v>
+        <v>3.446996322798785</v>
       </c>
       <c r="J17">
-        <v>9.340194932214098</v>
+        <v>9.28735693378276</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.924664091256012</v>
+        <v>11.47965494093288</v>
       </c>
       <c r="M17">
-        <v>13.58789013371403</v>
+        <v>10.21937737704369</v>
       </c>
       <c r="N17">
-        <v>5.54285464365009</v>
+        <v>5.879557745897764</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.69778035001745</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.754947955979371</v>
       </c>
       <c r="Q17">
-        <v>14.98391167355289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.4804642479129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18822410398977</v>
+        <v>16.09497581508752</v>
       </c>
       <c r="C18">
-        <v>9.204399372414718</v>
+        <v>9.009022728878966</v>
       </c>
       <c r="D18">
-        <v>6.028398305445164</v>
+        <v>6.099416951283046</v>
       </c>
       <c r="E18">
-        <v>7.381818194806174</v>
+        <v>7.297784681837986</v>
       </c>
       <c r="F18">
-        <v>20.79767864718197</v>
+        <v>20.09544572110522</v>
       </c>
       <c r="G18">
-        <v>22.82762553633664</v>
+        <v>21.44964671549847</v>
       </c>
       <c r="H18">
-        <v>5.046525278630257</v>
+        <v>4.976281078106746</v>
       </c>
       <c r="I18">
-        <v>3.618520909894789</v>
+        <v>3.452729099894504</v>
       </c>
       <c r="J18">
-        <v>9.507865726953147</v>
+        <v>9.46875405046522</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.915964481174677</v>
+        <v>11.70631984658641</v>
       </c>
       <c r="M18">
-        <v>13.3726727100397</v>
+        <v>10.45097836982267</v>
       </c>
       <c r="N18">
-        <v>5.868660303787465</v>
+        <v>5.860613683907835</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.49516050666697</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.092414952824109</v>
       </c>
       <c r="Q18">
-        <v>15.38265270824743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.84928349722032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.23154490037332</v>
+        <v>16.1210360022197</v>
       </c>
       <c r="C19">
-        <v>8.983854648621667</v>
+        <v>8.784689501438153</v>
       </c>
       <c r="D19">
-        <v>6.297895620871899</v>
+        <v>6.374673530256956</v>
       </c>
       <c r="E19">
-        <v>7.86359042031812</v>
+        <v>7.760180913381888</v>
       </c>
       <c r="F19">
-        <v>21.65260214111742</v>
+        <v>20.87282429442745</v>
       </c>
       <c r="G19">
-        <v>23.97667646992493</v>
+        <v>22.45103334624529</v>
       </c>
       <c r="H19">
-        <v>3.754369582201342</v>
+        <v>3.662143000634737</v>
       </c>
       <c r="I19">
-        <v>3.607174090836186</v>
+        <v>3.443824807478345</v>
       </c>
       <c r="J19">
-        <v>9.700838087077958</v>
+        <v>9.645850150456942</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.967710197092383</v>
+        <v>11.96772784141246</v>
       </c>
       <c r="M19">
-        <v>13.24134920356876</v>
+        <v>10.71534416581772</v>
       </c>
       <c r="N19">
-        <v>6.339220293856407</v>
+        <v>5.896990542855922</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.38064908672581</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.5791878542199</v>
       </c>
       <c r="Q19">
-        <v>15.85928334033488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.26868918123963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69597753615761</v>
+        <v>16.56391023856439</v>
       </c>
       <c r="C20">
-        <v>8.7645635681678</v>
+        <v>8.568886328776241</v>
       </c>
       <c r="D20">
-        <v>6.797948718998437</v>
+        <v>6.896524276127885</v>
       </c>
       <c r="E20">
-        <v>8.795094364045799</v>
+        <v>8.657276639561209</v>
       </c>
       <c r="F20">
-        <v>23.02883591000246</v>
+        <v>22.05749826917771</v>
       </c>
       <c r="G20">
-        <v>25.7995633341252</v>
+        <v>24.20466422377793</v>
       </c>
       <c r="H20">
-        <v>2.558404461478902</v>
+        <v>2.44267924307426</v>
       </c>
       <c r="I20">
-        <v>3.508490972882454</v>
+        <v>3.358185263487695</v>
       </c>
       <c r="J20">
-        <v>9.975367874562622</v>
+        <v>9.799703423543292</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.171530023195813</v>
+        <v>12.30451878097449</v>
       </c>
       <c r="M20">
-        <v>13.33624755429883</v>
+        <v>11.1096738980916</v>
       </c>
       <c r="N20">
-        <v>7.155897578152361</v>
+        <v>6.070496327626939</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.50347226505186</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.42543271287209</v>
       </c>
       <c r="Q20">
-        <v>16.58011803640871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.85019069919708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.70086249645838</v>
+        <v>17.55839695305458</v>
       </c>
       <c r="C21">
-        <v>8.866451551298985</v>
+        <v>8.727625120626421</v>
       </c>
       <c r="D21">
-        <v>7.106684616516433</v>
+        <v>7.279376875280066</v>
       </c>
       <c r="E21">
-        <v>9.067340650533861</v>
+        <v>8.923065510725683</v>
       </c>
       <c r="F21">
-        <v>23.37155185993963</v>
+        <v>22.04002192047611</v>
       </c>
       <c r="G21">
-        <v>26.16966084922339</v>
+        <v>25.8185764821159</v>
       </c>
       <c r="H21">
-        <v>2.313586437129407</v>
+        <v>2.221526741345054</v>
       </c>
       <c r="I21">
-        <v>3.326691513262688</v>
+        <v>3.204595100304569</v>
       </c>
       <c r="J21">
-        <v>9.950334707062794</v>
+        <v>9.218210645665177</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.231174052020481</v>
+        <v>12.05453213697754</v>
       </c>
       <c r="M21">
-        <v>14.01951216629746</v>
+        <v>11.03842510380441</v>
       </c>
       <c r="N21">
-        <v>7.463166507922596</v>
+        <v>6.112727817078251</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.19168085041251</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.750329629585124</v>
       </c>
       <c r="Q21">
-        <v>16.62871343574749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.64107901944408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.33513498141621</v>
+        <v>18.17979421365179</v>
       </c>
       <c r="C22">
-        <v>8.931562001701742</v>
+        <v>8.826105259566187</v>
       </c>
       <c r="D22">
-        <v>7.281520235208571</v>
+        <v>7.505312415984077</v>
       </c>
       <c r="E22">
-        <v>9.201741163972942</v>
+        <v>9.056348632094805</v>
       </c>
       <c r="F22">
-        <v>23.56579979703564</v>
+        <v>21.98564252730987</v>
       </c>
       <c r="G22">
-        <v>26.38229503662883</v>
+        <v>26.99170159931725</v>
       </c>
       <c r="H22">
-        <v>2.168375187063531</v>
+        <v>2.091328431894144</v>
       </c>
       <c r="I22">
-        <v>3.202428362103143</v>
+        <v>3.09601922627953</v>
       </c>
       <c r="J22">
-        <v>9.930209055671799</v>
+        <v>8.878277712038054</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.259353281946833</v>
+        <v>11.88501761479914</v>
       </c>
       <c r="M22">
-        <v>14.44815726004721</v>
+        <v>10.98684058363052</v>
       </c>
       <c r="N22">
-        <v>7.6178059348549</v>
+        <v>6.130595503171802</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.6220299927581</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.915713750201246</v>
       </c>
       <c r="Q22">
-        <v>16.65010884301782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.48215548060238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.00651480770706</v>
+        <v>17.85695837751869</v>
       </c>
       <c r="C23">
-        <v>8.885702329663907</v>
+        <v>8.762070680647065</v>
       </c>
       <c r="D23">
-        <v>7.186321062542975</v>
+        <v>7.375287404288265</v>
       </c>
       <c r="E23">
-        <v>9.134822660820257</v>
+        <v>8.988133623622721</v>
       </c>
       <c r="F23">
-        <v>23.48817388948785</v>
+        <v>22.0698217292816</v>
       </c>
       <c r="G23">
-        <v>26.31153001814186</v>
+        <v>26.24010039797419</v>
       </c>
       <c r="H23">
-        <v>2.24471265867236</v>
+        <v>2.158959078110745</v>
       </c>
       <c r="I23">
-        <v>3.257966155896634</v>
+        <v>3.140485532684034</v>
       </c>
       <c r="J23">
-        <v>9.948251534867522</v>
+        <v>9.105394373190331</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.246632578277017</v>
+        <v>11.99720185429192</v>
       </c>
       <c r="M23">
-        <v>14.21528139499992</v>
+        <v>11.04165356764103</v>
       </c>
       <c r="N23">
-        <v>7.529578044160306</v>
+        <v>6.124023547768116</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.38978043366931</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.821373071628834</v>
       </c>
       <c r="Q23">
-        <v>16.65672441305795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.60588107364884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70271089527625</v>
+        <v>16.56901681607471</v>
       </c>
       <c r="C24">
-        <v>8.7291692297841</v>
+        <v>8.523161051205745</v>
       </c>
       <c r="D24">
-        <v>6.819901360645692</v>
+        <v>6.918732372340164</v>
       </c>
       <c r="E24">
-        <v>8.869085937717363</v>
+        <v>8.728863392825961</v>
       </c>
       <c r="F24">
-        <v>23.16549513434931</v>
+        <v>22.18551591716162</v>
       </c>
       <c r="G24">
-        <v>25.99767022346872</v>
+        <v>24.37677402402583</v>
       </c>
       <c r="H24">
-        <v>2.541793118110264</v>
+        <v>2.425914510045708</v>
       </c>
       <c r="I24">
-        <v>3.491517100472758</v>
+        <v>3.338105369095411</v>
       </c>
       <c r="J24">
-        <v>10.01012127571181</v>
+        <v>9.834719105235919</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.19356105069303</v>
+        <v>12.36021644089631</v>
       </c>
       <c r="M24">
-        <v>13.30695583581986</v>
+        <v>11.16525910989549</v>
       </c>
       <c r="N24">
-        <v>7.197672569727947</v>
+        <v>6.090142251886361</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.47597155054645</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.469278384183296</v>
       </c>
       <c r="Q24">
-        <v>16.66475760934838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.92773930752417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19638924422219</v>
+        <v>15.06218338567464</v>
       </c>
       <c r="C25">
-        <v>8.557712099274509</v>
+        <v>8.217633025667691</v>
       </c>
       <c r="D25">
-        <v>6.405601679444009</v>
+        <v>6.490761599775953</v>
       </c>
       <c r="E25">
-        <v>8.572846379569006</v>
+        <v>8.457314988043546</v>
       </c>
       <c r="F25">
-        <v>22.84881115530816</v>
+        <v>22.00363252478618</v>
       </c>
       <c r="G25">
-        <v>25.71186192959476</v>
+        <v>24.18181210866567</v>
       </c>
       <c r="H25">
-        <v>2.876829224836697</v>
+        <v>2.737546536239814</v>
       </c>
       <c r="I25">
-        <v>3.756970287000148</v>
+        <v>3.573493518239409</v>
       </c>
       <c r="J25">
-        <v>10.08894656828365</v>
+        <v>9.953471562646769</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.13368292835241</v>
+        <v>12.64518539069859</v>
       </c>
       <c r="M25">
-        <v>12.25208700385664</v>
+        <v>11.21218724108828</v>
       </c>
       <c r="N25">
-        <v>6.824882504539759</v>
+        <v>6.040631250058874</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.39691945978399</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.081214699316994</v>
       </c>
       <c r="Q25">
-        <v>16.70063842919255</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.05304388656323</v>
       </c>
     </row>
   </sheetData>
